--- a/28_暗号化/kadaiS.xlsx
+++ b/28_暗号化/kadaiS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/sigemura/DOC/よく使うもの/20_GitHub/TecExercise/28_暗号化/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592CB90-A872-7140-9E75-85C6D71EC9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90B1D60-0276-214C-827E-2D49DDA26EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13220" yWindow="1420" windowWidth="22340" windowHeight="16040" xr2:uid="{AE2B6758-9489-D245-8F41-AE0447B25FDC}"/>
   </bookViews>
@@ -113,11 +113,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力をカエサル暗号に変換するプログラム</t>
-    <rPh sb="0" eb="2">
+    <t>英小文字しか入力されないと仮定し，入力をカエサル暗号に変換するプログラム</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">エイ </t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">コモジシカ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ニュウリョクサレナイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カテイシ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t xml:space="preserve">ニュウリョクヲ </t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="27" eb="29">
       <t xml:space="preserve">ヘンカンスル </t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -706,7 +718,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B4" sqref="B4:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
